--- a/static/files/2025journalanalysis.xlsx
+++ b/static/files/2025journalanalysis.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengliangchao/Library/Mobile Documents/com~apple~CloudDocs/Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengliangchao/Documents/smiler488.github.io/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF99FFF-F539-4747-A0C7-F32101C95AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2DDE31-C79B-1D4C-97DA-43FEABB8387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15880" xr2:uid="{D01BB6F6-AD79-C840-8965-E0FAF778EBC4}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15660" xr2:uid="{D01BB6F6-AD79-C840-8965-E0FAF778EBC4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="By LiangchaoDeng" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1965,7 +1965,7 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
